--- a/public/upload/report/DATA SURAT MASUK.xlsx
+++ b/public/upload/report/DATA SURAT MASUK.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">DATA SURAT </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>DATA SURAT MASUK</t>
   </si>
   <si>
     <t>NO</t>
@@ -29,18 +29,12 @@
     <t>TANGGAL SURAT</t>
   </si>
   <si>
-    <t>DARI</t>
-  </si>
-  <si>
-    <t>PENGIRIM</t>
+    <t>INSTANSI PENGIRIM</t>
   </si>
   <si>
     <t>TANGGAL MASUK</t>
   </si>
   <si>
-    <t>TUJUAN</t>
-  </si>
-  <si>
     <t>PERIHAL</t>
   </si>
   <si>
@@ -50,19 +44,16 @@
     <t>11-05-2022</t>
   </si>
   <si>
-    <t>Musly</t>
-  </si>
-  <si>
     <t>JNT</t>
   </si>
   <si>
     <t>26-05-2022</t>
   </si>
   <si>
-    <t>adri</t>
-  </si>
-  <si>
     <t>Surat Undangan</t>
+  </si>
+  <si>
+    <t>18-05-2022</t>
   </si>
 </sst>
 </file>
@@ -430,22 +421,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:H4"/>
+      <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="30" customWidth="true" style="0"/>
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="30" customWidth="true" style="0"/>
-    <col min="5" max="5" width="30" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="30" customWidth="true" style="0"/>
-    <col min="8" max="8" width="90" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="90" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -479,43 +468,51 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
         <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
